--- a/biology/Zoologie/Eumecochernes_pacificus/Eumecochernes_pacificus.xlsx
+++ b/biology/Zoologie/Eumecochernes_pacificus/Eumecochernes_pacificus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumecochernes pacificus est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hawaï[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hawaï.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>With, 1905 : On Chelonethi, chiefly from the Australian region, in the collection of the British Museum, with observations on the "coxal sac" and on some cases of abnormal segmentation. Annals and Magazine of Natural History, sér. 7, vol. 15, p. 94-143 (texte intégral).</t>
         </is>
